--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26630\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26630\Desktop\exam2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9F6E73-F568-46DF-9DA4-359DAE1F9C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84666C34-95AD-4DA5-A001-6BF69F81996C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="0" windowWidth="10040" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>0.000138 seconds</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.000118 seconds</t>
-  </si>
-  <si>
     <t>0.000191 seconds</t>
   </si>
   <si>
@@ -406,6 +403,10 @@
   </si>
   <si>
     <t>7.749201 seconds</t>
+  </si>
+  <si>
+    <t>0.000118 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -749,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -771,7 +772,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -788,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -799,10 +800,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -810,10 +811,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -821,24 +822,24 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -846,10 +847,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -857,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -868,10 +869,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -879,24 +880,24 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -904,10 +905,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -915,10 +916,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -926,10 +927,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -937,24 +938,24 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -962,10 +963,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,10 +974,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -984,10 +985,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -995,24 +996,24 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
         <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,10 +1021,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1031,10 +1032,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1042,10 +1043,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1053,24 +1054,24 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
         <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,10 +1079,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
         <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1089,10 +1090,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
         <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1100,10 +1101,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,24 +1112,24 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
         <v>66</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1136,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
         <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1147,10 +1148,10 @@
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1158,10 +1159,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,24 +1170,24 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
       <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
         <v>80</v>
-      </c>
-      <c r="D37" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1194,10 +1195,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
         <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1205,10 +1206,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
         <v>84</v>
-      </c>
-      <c r="D39" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1216,10 +1217,10 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
         <v>86</v>
-      </c>
-      <c r="D40" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1227,24 +1228,24 @@
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
       </c>
       <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
         <v>90</v>
-      </c>
-      <c r="D42" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1252,10 +1253,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
         <v>92</v>
-      </c>
-      <c r="D43" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1263,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
         <v>94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1274,10 +1275,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
         <v>97</v>
-      </c>
-      <c r="D45" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1285,24 +1286,24 @@
         <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1310,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
         <v>104</v>
-      </c>
-      <c r="D48" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -1321,10 +1322,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
         <v>106</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -1332,10 +1333,10 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
         <v>108</v>
-      </c>
-      <c r="D50" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -1343,10 +1344,10 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
         <v>110</v>
-      </c>
-      <c r="D51" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
